--- a/data/trans_orig/P43-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43-Estudios-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>621366</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>589576</v>
+        <v>588066</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>660021</v>
+        <v>657430</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4757993994459824</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4514563976790249</v>
+        <v>0.4503003060882205</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5053982045938776</v>
+        <v>0.503414270259853</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>684576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>645921</v>
+        <v>648512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>716366</v>
+        <v>717876</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5242006005540176</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4946017954061225</v>
+        <v>0.4965857297401464</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5485436023209751</v>
+        <v>0.5496996939117795</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>481836</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>448973</v>
+        <v>447094</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>519692</v>
+        <v>520269</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3050980023678885</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2842888757147343</v>
+        <v>0.283099219055025</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3290683329368903</v>
+        <v>0.3294331988337</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>1097448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1059592</v>
+        <v>1059015</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1130311</v>
+        <v>1132190</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6949019976321115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6709316670631097</v>
+        <v>0.6705668011663</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7157111242852655</v>
+        <v>0.7169007809449749</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>170239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>149817</v>
+        <v>147640</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>190850</v>
+        <v>191581</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3589502663559106</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3158901882522515</v>
+        <v>0.311299691387516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4024078939980696</v>
+        <v>0.4039497062698568</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>304030</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>283419</v>
+        <v>282688</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>324452</v>
+        <v>326629</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6410497336440893</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5975921060019301</v>
+        <v>0.5960502937301432</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6841098117477484</v>
+        <v>0.688700308612484</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>1273441</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1217049</v>
+        <v>1210615</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1335129</v>
+        <v>1324163</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3790575110326052</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3622715886032239</v>
+        <v>0.3603562959309313</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3974197375280143</v>
+        <v>0.3941554257213243</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>2086053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2024365</v>
+        <v>2035331</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2142445</v>
+        <v>2148879</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6209424889673948</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6025802624719857</v>
+        <v>0.6058445742786757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6377284113967759</v>
+        <v>0.6396437040690687</v>
       </c>
     </row>
     <row r="15">
@@ -1105,19 +1105,19 @@
         <v>849925</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>811383</v>
+        <v>814654</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>882389</v>
+        <v>883247</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6387385747272629</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6097739332423476</v>
+        <v>0.6122319464699297</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.663135990914072</v>
+        <v>0.6637812734663968</v>
       </c>
     </row>
     <row r="5">
@@ -1134,19 +1134,19 @@
         <v>480705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>448241</v>
+        <v>447383</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>519247</v>
+        <v>515976</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3612614252727371</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3368640090859283</v>
+        <v>0.3362187265336031</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3902260667576524</v>
+        <v>0.3877680535300702</v>
       </c>
     </row>
     <row r="6">
@@ -1196,19 +1196,19 @@
         <v>655626</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>612448</v>
+        <v>612698</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>699797</v>
+        <v>697318</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3754481213327328</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3507220334516203</v>
+        <v>0.3508648886567255</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4007424549028831</v>
+        <v>0.3993233458557808</v>
       </c>
     </row>
     <row r="8">
@@ -1225,19 +1225,19 @@
         <v>1090624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1046453</v>
+        <v>1048932</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1133802</v>
+        <v>1133552</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6245518786672672</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5992575450971169</v>
+        <v>0.6006766541442192</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6492779665483797</v>
+        <v>0.6491351113432745</v>
       </c>
     </row>
     <row r="9">
@@ -1287,19 +1287,19 @@
         <v>159533</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>137749</v>
+        <v>138183</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>180474</v>
+        <v>182960</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3501608186100982</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3023470677817567</v>
+        <v>0.3032991937481609</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3961244773718456</v>
+        <v>0.4015810626523444</v>
       </c>
     </row>
     <row r="11">
@@ -1316,19 +1316,19 @@
         <v>296067</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>275126</v>
+        <v>272640</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317851</v>
+        <v>317417</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6498391813899018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6038755226281545</v>
+        <v>0.5984189373476556</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6976529322182433</v>
+        <v>0.6967008062518389</v>
       </c>
     </row>
     <row r="12">
@@ -1378,19 +1378,19 @@
         <v>1665084</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1603996</v>
+        <v>1599917</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1723242</v>
+        <v>1728430</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4713641086363698</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4540709474211846</v>
+        <v>0.4529161253318655</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.487828068904865</v>
+        <v>0.4892966958073008</v>
       </c>
     </row>
     <row r="14">
@@ -1407,19 +1407,19 @@
         <v>1867395</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1809237</v>
+        <v>1804049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1928483</v>
+        <v>1932562</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5286358913636302</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5121719310951349</v>
+        <v>0.5107033041926992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5459290525788154</v>
+        <v>0.5470838746681345</v>
       </c>
     </row>
     <row r="15">
@@ -1586,19 +1586,19 @@
         <v>644496</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>610763</v>
+        <v>613827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>675065</v>
+        <v>674129</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6545651103562619</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6203051587844953</v>
+        <v>0.6234173949794749</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6856118871062157</v>
+        <v>0.684661483992867</v>
       </c>
     </row>
     <row r="5">
@@ -1615,19 +1615,19 @@
         <v>340121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>309552</v>
+        <v>310488</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>373854</v>
+        <v>370790</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3454348896437381</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3143881128937843</v>
+        <v>0.3153385160071329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3796948412155047</v>
+        <v>0.3765826050205252</v>
       </c>
     </row>
     <row r="6">
@@ -1677,19 +1677,19 @@
         <v>857045</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>815240</v>
+        <v>811225</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>900405</v>
+        <v>899942</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4340637426592866</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4128910933648153</v>
+        <v>0.4108575157881498</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4560239611199077</v>
+        <v>0.4557898612639367</v>
       </c>
     </row>
     <row r="8">
@@ -1706,19 +1706,19 @@
         <v>1117423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1074063</v>
+        <v>1074526</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1159228</v>
+        <v>1163243</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5659362573407134</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5439760388800925</v>
+        <v>0.5442101387360635</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5871089066351848</v>
+        <v>0.5891424842118503</v>
       </c>
     </row>
     <row r="9">
@@ -1768,19 +1768,19 @@
         <v>248297</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>222081</v>
+        <v>225591</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>270091</v>
+        <v>273792</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4529607022180761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4051354578050089</v>
+        <v>0.411539753935358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4927188419993476</v>
+        <v>0.4994717949936017</v>
       </c>
     </row>
     <row r="11">
@@ -1797,19 +1797,19 @@
         <v>299867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278073</v>
+        <v>274372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>326083</v>
+        <v>322573</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5470392977819239</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5072811580006523</v>
+        <v>0.5005282050063983</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5948645421949911</v>
+        <v>0.588460246064642</v>
       </c>
     </row>
     <row r="12">
@@ -1859,19 +1859,19 @@
         <v>1749838</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1692036</v>
+        <v>1689782</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1807474</v>
+        <v>1812392</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4989202966808325</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4824396084312232</v>
+        <v>0.4817969756942279</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5153537864204388</v>
+        <v>0.51675594636988</v>
       </c>
     </row>
     <row r="14">
@@ -1888,19 +1888,19 @@
         <v>1757411</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1699775</v>
+        <v>1694857</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1815213</v>
+        <v>1817467</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5010797033191675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4846462135795617</v>
+        <v>0.4832440536301205</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5175603915687769</v>
+        <v>0.5182030243057727</v>
       </c>
     </row>
     <row r="15">
@@ -2067,19 +2067,19 @@
         <v>430986</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>410432</v>
+        <v>412040</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>450414</v>
+        <v>450268</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6470567234194146</v>
+        <v>0.6470567234194147</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6161992320459911</v>
+        <v>0.6186126328995839</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6762254753070804</v>
+        <v>0.6760055171732453</v>
       </c>
     </row>
     <row r="5">
@@ -2096,19 +2096,19 @@
         <v>235085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>215657</v>
+        <v>215803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>255639</v>
+        <v>254031</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3529432765805853</v>
+        <v>0.3529432765805854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3237745246929197</v>
+        <v>0.3239944828267553</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.383800767954009</v>
+        <v>0.3813873671004164</v>
       </c>
     </row>
     <row r="6">
@@ -2158,19 +2158,19 @@
         <v>732910</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>697984</v>
+        <v>695583</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>769090</v>
+        <v>769533</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4524250422247298</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4308655019358863</v>
+        <v>0.429383299016899</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4747595246457116</v>
+        <v>0.4750328759945099</v>
       </c>
     </row>
     <row r="8">
@@ -2187,19 +2187,19 @@
         <v>887048</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>850868</v>
+        <v>850425</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>921974</v>
+        <v>924375</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5475749577752702</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5252404753542884</v>
+        <v>0.5249671240054899</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5691344980641141</v>
+        <v>0.5706167009831011</v>
       </c>
     </row>
     <row r="9">
@@ -2249,19 +2249,19 @@
         <v>299107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>280589</v>
+        <v>276969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>319716</v>
+        <v>319096</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5839184510828251</v>
+        <v>0.583918451082825</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5477666967123576</v>
+        <v>0.5406996602604676</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.624151214385682</v>
+        <v>0.6229415025124226</v>
       </c>
     </row>
     <row r="11">
@@ -2278,19 +2278,19 @@
         <v>213134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>192525</v>
+        <v>193145</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>231652</v>
+        <v>235272</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.416081548917175</v>
+        <v>0.4160815489171749</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3758487856143181</v>
+        <v>0.3770584974875773</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4522333032876426</v>
+        <v>0.4593003397395322</v>
       </c>
     </row>
     <row r="12">
@@ -2340,19 +2340,19 @@
         <v>1463003</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1414789</v>
+        <v>1408097</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1512136</v>
+        <v>1509599</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5228238643657586</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5055940281015595</v>
+        <v>0.5032024983649446</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5403821844048061</v>
+        <v>0.5394757152432977</v>
       </c>
     </row>
     <row r="14">
@@ -2369,19 +2369,19 @@
         <v>1335268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1286135</v>
+        <v>1288672</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1383482</v>
+        <v>1390174</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4771761356342414</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4596178155951934</v>
+        <v>0.460524284756703</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4944059718984404</v>
+        <v>0.4967975016350554</v>
       </c>
     </row>
     <row r="15">
